--- a/地词合并表单.xlsx
+++ b/地词合并表单.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThinkPad\Desktop\TJlab\Tang\chinese_poetry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1D76A4-4FD8-485D-96B5-1149F2730B1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C225A65-021D-4808-B523-5A3DDC6872BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19665" yWindow="4020" windowWidth="17295" windowHeight="8970" xr2:uid="{CEB0267F-DDE7-4FC5-98D2-7BBADDA4D0E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CEB0267F-DDE7-4FC5-98D2-7BBADDA4D0E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>终南山</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -316,6 +316,40 @@
   </si>
   <si>
     <t>辋川集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渭川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰县</t>
+  </si>
+  <si>
+    <t>丰</t>
+  </si>
+  <si>
+    <t>凤城头</t>
+  </si>
+  <si>
+    <t>凤城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄠县</t>
+  </si>
+  <si>
+    <t>鄠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华清宫殿</t>
+  </si>
+  <si>
+    <t>骊岫</t>
+  </si>
+  <si>
+    <t>渭川道</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -323,7 +357,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,6 +387,17 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -377,13 +422,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -699,15 +746,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290E6562-4E47-4BE0-B0BB-E30B313D32B9}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -721,7 +768,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -747,7 +794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -763,7 +810,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -777,7 +824,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -820,8 +867,14 @@
       <c r="N5" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
@@ -829,7 +882,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -837,7 +890,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -845,7 +898,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -856,7 +909,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -867,7 +920,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -875,7 +928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -892,7 +945,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -900,7 +953,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -911,15 +964,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>51</v>
       </c>
@@ -948,7 +1004,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
@@ -956,7 +1012,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>62</v>
       </c>
@@ -967,7 +1023,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>63</v>
       </c>
@@ -977,8 +1033,11 @@
       <c r="C19" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
@@ -986,7 +1045,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>69</v>
       </c>
@@ -994,7 +1053,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>72</v>
       </c>
@@ -1005,7 +1064,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>75</v>
       </c>
@@ -1016,7 +1075,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>77</v>
       </c>
@@ -1024,7 +1083,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>88</v>
       </c>
@@ -1035,12 +1094,36 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
